--- a/Report/Mail_Attachment/FinalReport.xlsx
+++ b/Report/Mail_Attachment/FinalReport.xlsx
@@ -7,7 +7,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Results" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Execution Status" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Config</x:t>
   </x:si>
@@ -26,7 +25,7 @@
     <x:t>Pass</x:t>
   </x:si>
   <x:si>
-    <x:t>02-02-2021 07:59:25 PM</x:t>
+    <x:t>11-02-2021 05:03:38 PM</x:t>
   </x:si>
   <x:si>
     <x:t>Login</x:t>
@@ -35,7 +34,7 @@
     <x:t>Portal Login</x:t>
   </x:si>
   <x:si>
-    <x:t>02-02-2021 07:59:59 PM</x:t>
+    <x:t>11-02-2021 05:04:02 PM</x:t>
   </x:si>
   <x:si>
     <x:t>INT Process Monitoring Dashboard</x:t>
@@ -44,94 +43,55 @@
     <x:t>WO is matched</x:t>
   </x:si>
   <x:si>
-    <x:t>02-02-2021 08:00:30 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT NM Status Check</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM -ING task completion status is Completed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:01:02 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT Process monitoring Dashboard-NM Workflow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM-AQC completion status Pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:02:42 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QC Popup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QC Popup Loaded from International Process Monitoring Dashboard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:02:57 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WO Title mached</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:02:59 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title id matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:03:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chapter Id matched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:03:02 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Ingest ID Populating in Segments TabLFPROXI73372/1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:03:03 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QC-Pick Task from Task Dashboard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:04:11 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QC Submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:05:15 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM Workflow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALC is completedCompleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 08:11:10 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify User is able to enter the Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 07:59:46 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Verify User is able to login to Portal </x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2021 07:59:58 PM</x:t>
+    <x:t>11-02-2021 05:04:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Break Structure Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM-BS task status is In Progress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:04:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auto-Assignment for BS Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:05:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:09:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:09:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:10:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:10:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:11:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BS Segment Deletion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:14:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BS task Mark As Complete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:14:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM-BS task status is Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2021 05:15:16 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -546,176 +506,128 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
